--- a/xls/TABLE_英雄成长表.xlsx
+++ b/xls/TABLE_英雄成长表.xlsx
@@ -187,15 +187,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
+    <t>f</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
+    <t>f</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
+    <t>f</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:Z252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1283,76 +1283,76 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" t="s">
         <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26">
